--- a/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/incorrect_predictions.xlsx
+++ b/experiments/llm-rnn/roberta-base_BiLSTM_2_Linear/incorrect_predictions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode . Current flight speed is nnn . Press C2 to exit .</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,21 +487,21 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zone . Unable to take off . Check map to find Recommended Zones .</t>
+          <t>Warnin .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Check map to find Recommended Zones</t>
+          <t>Warnin</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10-15</t>
+          <t>0-0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,21 +512,21 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point . Initiating Return to Home will now trigger Auto Landing .</t>
+          <t>Warning: Battery Temperature Below 15°C (59F) . Warm battery to above 25°C (77F) before flying .</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Aircraft is close to the Home Point</t>
+          <t>Warning: Battery Temperature Below 15°C (59F)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0-6</t>
+          <t>0-5</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10</v>
+        <v>161</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . Minimum RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH .</t>
+          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Minimum RTH Altitude is 30m</t>
+          <t>Warning: Max Flight Altitude Reached</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,526 +562,51 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the Home Point . RTH Altitude is 30m . You can reset the RTH Altitude in Remote Controller Settings after cancelling RTH if necessary .</t>
+          <t>Warning: Max Flight Altitude Reached . Adjust in Main Controller Settings if necessary .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>RTH Altitude is 30m</t>
+          <t>Max Flight Altitude Reached</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8-11</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Missing</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn .</t>
+          <t>Weak GPS signal . Aircraft is in Attitude mode and hovering may be unstable . Fly with caution .</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Altitude Zone nnn</t>
+          <t>Aircraft is in Attitude mode and hovering may be unstable</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>4-13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>41</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Cannot track subject : No image . Please retry .</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Please retry</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7-8</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>42</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Cannot track subject : Subject too Large . Move Away and retry .</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Move Away and retry</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8-11</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>43</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Cannot track subject : Subject too Small . Get Closer and retry .</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Get Closer and retry</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8-11</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>77</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Error: Course angle control error</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0-4</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>77</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Error: Course angle control error . Please ensure the propellers are installed on the correct motors .</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Course angle control error</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1-4</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>89</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) . Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant)</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0-13</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>94</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>GPS signal weak . Fly with caution . Aircraft in Altitude Zone . Max altitude set to nnn .</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Fly with caution</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4-6</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>100</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Home Point Recorded , Return-to-Home Altitude : 98FT .</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Return-to-Home Altitude : 98FT</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4-7</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>101</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>IMU calibration required . Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Calibrate IMU</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>102</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>IMU not calibrated . Calibrate IMU .</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Calibrate IMU</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>4-5</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>134</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Return-to-Home Altitude : 98FT .</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Return-to-Home Altitude : 98FT</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>136</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>RTH : Ascending to RTH altitude .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>RTH : Ascending to RTH altitude</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0-5</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>136</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>RTH : Ascending to RTH altitude .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Ascending to RTH altitude</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2-5</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>137</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>RTH : Cruise .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>RTH : Cruise</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0-2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>137</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>RTH : Cruise .</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>RTH :</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0-1</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>150</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Switched to gimbal free mode . Use the RC to control aircraft yaw .</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Use the RC to control aircraft yaw</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6-12</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>157</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Warnin .</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Warnin</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0-0</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
-        <v>160</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Warning: Critically low battery . Please change the battery .</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Warning: Critically low battery</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0-3</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
-        <v>160</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Warning: Critically low battery . Please change the battery .</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Critically low battery</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>1-3</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
